--- a/SERNAC/Cotizador de Textos Escolares/Gráfico.xlsx
+++ b/SERNAC/Cotizador de Textos Escolares/Gráfico.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\SERNAC\Cotizador de Textos Escolares\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BA152-C21D-41E2-A17C-AF13C72E3234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -259,8 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -308,26 +314,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA493C19-A316-4215-9389-8886D5B14AFE}" name="Tabla1" displayName="Tabla1" ref="E1:J38" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="E1:J38" xr:uid="{1F64558C-7178-4D99-B339-BEBB0DD73E6B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{11FED654-9350-408C-B978-8FF1991D22F6}" name="Editorial-alias"/>
+    <tableColumn id="2" xr3:uid="{3D5338C6-6BA4-430F-A9AA-19A9A8A5E4DF}" name="Establecimiento-alias"/>
+    <tableColumn id="3" xr3:uid="{F19595C8-ED2B-4A33-87AA-84DC53E92D7E}" name="NOMBRE TEXTO ESCOLAR-value"/>
+    <tableColumn id="4" xr3:uid="{650C2963-055A-43D9-84EE-9D37E1C9284E}" name="NOMBRE TEXTO ESCOLAR-alias"/>
+    <tableColumn id="5" xr3:uid="{3791E65B-213D-4947-8D62-1286E0E725F7}" name="ATTR(Comuna (Hoja1))-alias"/>
+    <tableColumn id="6" xr3:uid="{1AF49FA0-279A-4BFB-A1CD-4586686D74FB}" name="ATTR(Direccion (Hoja1))-alias"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -369,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +490,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,6 +542,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +735,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="8" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,26 +767,26 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24900</v>
       </c>
@@ -681,7 +818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>27700</v>
       </c>
@@ -713,7 +850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27700</v>
       </c>
@@ -745,7 +882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29900</v>
       </c>
@@ -777,7 +914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29900</v>
       </c>
@@ -809,7 +946,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>29900</v>
       </c>
@@ -841,7 +978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>29900</v>
       </c>
@@ -873,7 +1010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30900</v>
       </c>
@@ -905,7 +1042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30900</v>
       </c>
@@ -937,7 +1074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32900</v>
       </c>
@@ -969,7 +1106,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33900</v>
       </c>
@@ -1001,7 +1138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>33900</v>
       </c>
@@ -1033,7 +1170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>34900</v>
       </c>
@@ -1065,7 +1202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>34900</v>
       </c>
@@ -1097,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34900</v>
       </c>
@@ -1129,7 +1266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34900</v>
       </c>
@@ -1161,7 +1298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34900</v>
       </c>
@@ -1193,7 +1330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34900</v>
       </c>
@@ -1225,7 +1362,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34900</v>
       </c>
@@ -1257,7 +1394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>34900</v>
       </c>
@@ -1289,7 +1426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>34900</v>
       </c>
@@ -1321,7 +1458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34900</v>
       </c>
@@ -1353,7 +1490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34900</v>
       </c>
@@ -1385,7 +1522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34900</v>
       </c>
@@ -1417,7 +1554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34900</v>
       </c>
@@ -1449,7 +1586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>34990</v>
       </c>
@@ -1481,7 +1618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34990</v>
       </c>
@@ -1513,7 +1650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34990</v>
       </c>
@@ -1545,7 +1682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>34990</v>
       </c>
@@ -1577,7 +1714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>34990</v>
       </c>
@@ -1609,7 +1746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>34990</v>
       </c>
@@ -1641,7 +1778,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34990</v>
       </c>
@@ -1673,7 +1810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>39500</v>
       </c>
@@ -1705,7 +1842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39500</v>
       </c>
@@ -1737,7 +1874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>39500</v>
       </c>
@@ -1769,7 +1906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>39500</v>
       </c>
@@ -1801,7 +1938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39500</v>
       </c>
@@ -1835,5 +1972,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>